--- a/capiq_data/in_process_ids/ids 2.xlsx
+++ b/capiq_data/in_process_ids/ids 2.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\capiq_3\in_process_ids\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\credit_rating_predictions-main\capiq_data\in_process_ids\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D2AD37B-DE97-493E-BB0F-F2A941394797}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1EC8017-05B4-4C75-8C80-49D75A1A0122}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="735" yWindow="735" windowWidth="14400" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="CIQWBGuid" hidden="1">"7cfbb04f-10ad-4740-978a-9cfe1489dd11"</definedName>
+    <definedName name="CIQWBGuid" hidden="1">"df6d67c6-97bb-43b6-a06a-73e8f389815d"</definedName>
     <definedName name="CIQWBInfo" hidden="1">"{ ""CIQVersion"":""9.45.614.5792"" }"</definedName>
     <definedName name="IQ_CH">110000</definedName>
     <definedName name="IQ_CQ">5000</definedName>
@@ -41,7 +41,7 @@
     <definedName name="IQ_LTMMONTH" hidden="1">120000</definedName>
     <definedName name="IQ_MONTH">15000</definedName>
     <definedName name="IQ_MTD" hidden="1">800000</definedName>
-    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44257.9003703704</definedName>
+    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44278.8607986111</definedName>
     <definedName name="IQ_NTM">6000</definedName>
     <definedName name="IQ_QTD" hidden="1">750000</definedName>
     <definedName name="IQ_TODAY" hidden="1">0</definedName>
@@ -254,6 +254,9 @@
     <t>IQ Name</t>
   </si>
   <si>
+    <t>CAH</t>
+  </si>
+  <si>
     <t>KMX</t>
   </si>
   <si>
@@ -509,15 +512,6 @@
     <t>EFX</t>
   </si>
   <si>
-    <t>EQIX</t>
-  </si>
-  <si>
-    <t>Equinix, Inc. (REIT)</t>
-  </si>
-  <si>
-    <t>IQ28202</t>
-  </si>
-  <si>
     <t>Equifax Inc.</t>
   </si>
   <si>
@@ -710,10 +704,10 @@
     <t>IQ266311</t>
   </si>
   <si>
-    <t>Dell Technologies Inc.</t>
-  </si>
-  <si>
-    <t>IQ266017</t>
+    <t>Deere &amp; Company</t>
+  </si>
+  <si>
+    <t>IQ266112</t>
   </si>
   <si>
     <t>DaVita Inc.</t>
@@ -1008,6 +1002,12 @@
   </si>
   <si>
     <t>IQ356805</t>
+  </si>
+  <si>
+    <t>Cardinal Health, Inc.</t>
+  </si>
+  <si>
+    <t>IQ172207</t>
   </si>
   <si>
     <t/>
@@ -1485,13 +1485,13 @@
         <v>257</v>
       </c>
       <c r="C8" t="s">
-        <v>224</v>
+        <v>244</v>
       </c>
       <c r="D8" t="s">
         <v>257</v>
       </c>
       <c r="E8" t="s">
-        <v>223</v>
+        <v>243</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.45">
@@ -1502,13 +1502,13 @@
         <v>257</v>
       </c>
       <c r="C9" t="s">
-        <v>244</v>
+        <v>222</v>
       </c>
       <c r="D9" t="s">
         <v>257</v>
       </c>
       <c r="E9" t="s">
-        <v>243</v>
+        <v>221</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.45">
@@ -1706,13 +1706,13 @@
         <v>257</v>
       </c>
       <c r="C21" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="D21" t="s">
         <v>257</v>
       </c>
       <c r="E21" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.45">
@@ -1723,13 +1723,13 @@
         <v>257</v>
       </c>
       <c r="C22" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="D22" t="s">
         <v>257</v>
       </c>
       <c r="E22" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.45">
@@ -2403,13 +2403,13 @@
         <v>257</v>
       </c>
       <c r="C62" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D62" t="s">
         <v>257</v>
       </c>
       <c r="E62" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.45">
